--- a/document/ALU测试数据.xlsx
+++ b/document/ALU测试数据.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -39,6 +39,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Shift_Num</t>
     </r>
@@ -47,8 +48,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="3"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">被移位数据
@@ -85,6 +86,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CPSR</t>
     </r>
@@ -102,6 +104,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CF</t>
     </r>
@@ -119,6 +122,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">VF(*</t>
     </r>
@@ -136,6 +140,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">01</t>
     </r>
@@ -153,6 +158,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -164,7 +170,7 @@
     <t xml:space="preserve">NZCV</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6305FB6</t>
+    <t xml:space="preserve">0x06305FB6</t>
   </si>
   <si>
     <t xml:space="preserve">0x6C6571FD</t>
@@ -187,6 +193,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x04205164</t>
     </r>
@@ -258,6 +265,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -290,6 +298,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -360,9 +369,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -373,7 +386,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,15 +414,15 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.83"/>
@@ -418,28 +431,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -450,22 +463,22 @@
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -476,22 +489,22 @@
       <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -502,22 +515,22 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -528,22 +541,22 @@
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -554,22 +567,22 @@
       <c r="B6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -580,22 +593,22 @@
       <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -606,22 +619,22 @@
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -632,22 +645,22 @@
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -658,22 +671,22 @@
       <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
